--- a/nr-update-card/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/nr-update-card/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-08T13:26:00+00:00</t>
+    <t>2026-01-12T08:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-card/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/nr-update-card/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T08:44:59+00:00</t>
+    <t>2026-01-12T08:53:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-card/ig/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/nr-update-card/ig/StructureDefinition-fr-core-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T08:53:05+00:00</t>
+    <t>2026-01-12T09:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
